--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kad/projects/cog-uk/cog-uk.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E72460-BD22-2546-94AD-246F6806B668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4A0C1-4F15-3942-83BB-681BB272EAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28040" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{782CEB28-1791-874A-95B3-ACADEFF53A90}"/>
+    <workbookView xWindow="0" yWindow="6900" windowWidth="28800" windowHeight="10140" xr2:uid="{782CEB28-1791-874A-95B3-ACADEFF53A90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>England</t>
   </si>
   <si>
-    <t>2020-03-17T12:03:07.746Z</t>
-  </si>
-  <si>
-    <t>2020-03-16T12:03:07.746Z</t>
-  </si>
-  <si>
-    <t>2020-03-18T12:03:07.746Z</t>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Pick a region</t>
+  </si>
+  <si>
+    <t>Collection Date</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>5e709f9e66c3c</t>
   </si>
   <si>
     <t>5e6bad54c09f9</t>
@@ -51,38 +66,26 @@
     <t>5e6f50e0ad595</t>
   </si>
   <si>
-    <t>5e709f9e66c3c</t>
-  </si>
-  <si>
-    <t>strain a</t>
-  </si>
-  <si>
-    <t>strain b</t>
-  </si>
-  <si>
-    <t>strain c</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Barcode</t>
-  </si>
-  <si>
-    <t>Pick a region</t>
-  </si>
-  <si>
-    <t>Collection Date</t>
-  </si>
-  <si>
-    <t>wales</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>5e6f50e0ad591</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +98,12 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,9 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,75 +445,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9838D8CC-8850-CD43-A6CF-DA3D38CBB4C9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kad/projects/cog-uk/cog-uk.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4A0C1-4F15-3942-83BB-681BB272EAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BC7D5-D886-624F-AA77-326EAEE4C380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6900" windowWidth="28800" windowHeight="10140" xr2:uid="{782CEB28-1791-874A-95B3-ACADEFF53A90}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>5e6f50e0ad591</t>
+    <t>5e6f50e0ad592</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
